--- a/data/evaluation/evaluation_Center_Autumn_Potatoes.xlsx
+++ b/data/evaluation/evaluation_Center_Autumn_Potatoes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4269.812615778768</v>
+        <v>4282.149141567272</v>
       </c>
       <c r="C4" t="n">
-        <v>61073844.01763389</v>
+        <v>61798744.52547049</v>
       </c>
       <c r="D4" t="n">
-        <v>7814.975624890579</v>
+        <v>7861.217750798567</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1295338013326209</v>
+        <v>0.1192020234722593</v>
       </c>
     </row>
     <row r="5">
